--- a/XRayTracing_Input.xlsx
+++ b/XRayTracing_Input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAPAK\OneDrive - IBA Group\Documents\XRayTracing_Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAPAK\OneDrive - IBA Group\Documents\XRayTracing_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575FA44F-0D4F-4E06-A702-1F86C07E5880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CE9809-6683-43EC-8EF5-2DBC0AF4FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="80">
   <si>
     <t>Simulation number</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Units (Gy/h) (kGy/h) (Gy) (kGy)</t>
   </si>
   <si>
-    <t>Current [mA]</t>
-  </si>
-  <si>
     <t>Conveyor speed [m/min]</t>
   </si>
   <si>
@@ -258,6 +255,24 @@
   </si>
   <si>
     <t>(-105,25,)</t>
+  </si>
+  <si>
+    <t>Variable Current in X direction [mA]</t>
+  </si>
+  <si>
+    <t>Variable Current in Y direction [mA]</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>[2.0, 2.0, 2.0, 1.9, 1.8, 1.6, 1.4, 1.3, 1.2, 1.1, 1, 1.1, 1.2, 1.3, 1.4, 1.6, 1.8, 1.9, 2.0, 2.0, 2.0]</t>
+  </si>
+  <si>
+    <t>[1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0, 1.0]</t>
+  </si>
+  <si>
+    <t>[1.5, 1.5, 1.5, 1.25, 1.15, 1.07, 1.02, 0.98, 0.94, 0.91, 0.90, 0.91, 0.94, 0.98, 1.02, 1.07, 1.15, 1.25, 1.5, 1.5, 1.5]</t>
   </si>
 </sst>
 </file>
@@ -732,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -913,15 +928,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,23 +943,74 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1392,49 +1455,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1516,46 +1536,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dataset" displayName="Dataset" ref="A2:AK11" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A2:AK11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Simulation number" dataDxfId="36"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Run (V or X)" dataDxfId="35"/>
-    <tableColumn id="91" xr3:uid="{626FBC7C-3428-4D9C-8245-E9980AC00DE2}" name="Source X-dimension [cm]" dataDxfId="34"/>
-    <tableColumn id="92" xr3:uid="{48847A7E-649C-495D-90D0-0688D87DF622}" name="Source Y-dimension [cm]" dataDxfId="33"/>
-    <tableColumn id="93" xr3:uid="{66149D7C-1A46-4A74-A17E-BAA01A3EF0E9}" name="Source resolution (X,Y,) [cm²]" dataDxfId="32"/>
-    <tableColumn id="101" xr3:uid="{AFAA355A-5088-4D32-864A-D3766E3F2DB9}" name="Current [mA]" dataDxfId="31"/>
-    <tableColumn id="113" xr3:uid="{52A1E8D6-8081-4659-A014-60E4EF5F0E59}" name="Conveyor density [g/cm³]" dataDxfId="30"/>
-    <tableColumn id="94" xr3:uid="{96888CAA-C7C5-4E47-8448-9191C49FA5A1}" name="Conveyor dimensions [cm³]" dataDxfId="29"/>
-    <tableColumn id="95" xr3:uid="{ED0D4D0E-1211-43F2-BC0E-22DA81926893}" name="Conveyor (X,Z,) offset to source [cm]²" dataDxfId="28"/>
-    <tableColumn id="98" xr3:uid="{A2FC2080-D096-4223-A065-59BF125992CF}" name="Conveyor speed [m/min]" dataDxfId="27"/>
-    <tableColumn id="99" xr3:uid="{5E6C370D-3088-4624-AFB4-003F396975BF}" name="Operation [hours/year]" dataDxfId="26"/>
-    <tableColumn id="102" xr3:uid="{770C3078-401F-4D26-A1DF-66B2FFE02E8B}" name="Central product density [g/cm³]" dataDxfId="25"/>
-    <tableColumn id="48" xr3:uid="{CCB69289-CD76-4BD9-9335-F57431C42E63}" name="Central product dimensions [cm³]" dataDxfId="24"/>
-    <tableColumn id="107" xr3:uid="{7D836FFB-FB1E-4F92-B391-5A079FD28583}" name="Central product (Y,Z,) position [cm]" dataDxfId="23"/>
-    <tableColumn id="105" xr3:uid="{52C3BF51-271E-47F7-AA33-2A718B0AF70E}" name="Central product resolution (X,Y,Z) [cm³]" dataDxfId="22"/>
-    <tableColumn id="80" xr3:uid="{9673494C-D662-4EC2-81E7-43A6012DBA29}" name="Central wooden pallet density [g/cm³]" dataDxfId="21"/>
-    <tableColumn id="78" xr3:uid="{AD143500-9222-4D71-A52F-89788F0E51BF}" name="Central wooden pallet dimensions [cm³]" dataDxfId="20"/>
-    <tableColumn id="104" xr3:uid="{64CF5341-FD0F-4CC6-8051-EDE54CCFDAFD}" name="Left product density [g/cm³]" dataDxfId="19"/>
-    <tableColumn id="103" xr3:uid="{302258E3-A3C1-449E-A147-45DF85CD8461}" name="Left product dimensions [cm³]" dataDxfId="18"/>
-    <tableColumn id="81" xr3:uid="{F4817E2A-8E0A-4F71-AEEF-983CB4BA5C5A}" name="Left product Y-gap [cm]" dataDxfId="17"/>
-    <tableColumn id="79" xr3:uid="{D4890004-1BD6-47CE-A0AD-30515FDE1C89}" name="Left wooden pallet density [g/cm³]" dataDxfId="16"/>
-    <tableColumn id="49" xr3:uid="{99EDCD1E-4E84-4177-8AE8-B85A1112E226}" name="Left wooden pallet dimensions [cm³]" dataDxfId="15"/>
-    <tableColumn id="68" xr3:uid="{134833D5-3CD0-445F-96A6-F83F3F601C27}" name="Right product density [g/cm³]" dataDxfId="14"/>
-    <tableColumn id="69" xr3:uid="{57F245DA-9F77-4C92-89BD-07EC51E62BA7}" name="Right product dimensions [cm³]" dataDxfId="13"/>
-    <tableColumn id="85" xr3:uid="{872D630E-21C6-45BA-BF05-CA39F0614DE6}" name="Right product Y-gap [cm]" dataDxfId="12"/>
-    <tableColumn id="84" xr3:uid="{65B9F3CC-FE71-4DC2-B3A1-DCE7E9DFB044}" name="Right wooden pallet density [g/cm³]" dataDxfId="11"/>
-    <tableColumn id="83" xr3:uid="{C788756D-428F-464B-BB5B-33F86DA3B670}" name="Right wooden pallet dimensions [cm³]" dataDxfId="10"/>
-    <tableColumn id="82" xr3:uid="{F993C600-89C0-4209-8324-76E491F0FF21}" name="Mother pallets density [g/cm³]" dataDxfId="9"/>
-    <tableColumn id="65" xr3:uid="{E2839587-C22B-4C24-A46E-35133C720E5D}" name="Mother pallets dimensions [cm³]" dataDxfId="8"/>
-    <tableColumn id="75" xr3:uid="{D92D691F-4F6B-4EA0-8A3B-CC42AE83D3EB}" name="Units (Gy/h) (kGy/h) (Gy) (kGy)" dataDxfId="7"/>
-    <tableColumn id="63" xr3:uid="{EF6E5902-20A7-42BC-AA8A-69AFA6FA6571}" name="Minimum dose" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Purpose of the test" dataDxfId="5"/>
-    <tableColumn id="77" xr3:uid="{95DD1121-A20B-405B-B9A1-FE5D35E618A0}" name="List of n 0-D dose mapping points (X1,Y1,Z1), …, (Xn,Yn,Zn)" dataDxfId="4"/>
-    <tableColumn id="109" xr3:uid="{EAC4DB55-B00A-46BE-AD00-296DD033D394}" name="X-mapping (V or X)" dataDxfId="3"/>
-    <tableColumn id="111" xr3:uid="{738EFEBD-DE05-475E-AAEA-A33A35B3E948}" name="Y-mapping (V or X)" dataDxfId="2"/>
-    <tableColumn id="110" xr3:uid="{DBF499A0-44D0-419A-909B-771F65574919}" name="Z-mapping (V or X)" dataDxfId="1"/>
-    <tableColumn id="90" xr3:uid="{59CF94CA-802D-4A0C-8D11-1660040EBEDD}" name="List of p 1-D mapping points (X1,Y1,Z1), …, (Xp,Yp,Zp)" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dataset" displayName="Dataset" ref="A2:AL11" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A2:AL11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Simulation number" dataDxfId="37"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Run (V or X)" dataDxfId="36"/>
+    <tableColumn id="91" xr3:uid="{626FBC7C-3428-4D9C-8245-E9980AC00DE2}" name="Source X-dimension [cm]" dataDxfId="35"/>
+    <tableColumn id="92" xr3:uid="{48847A7E-649C-495D-90D0-0688D87DF622}" name="Source Y-dimension [cm]" dataDxfId="34"/>
+    <tableColumn id="93" xr3:uid="{66149D7C-1A46-4A74-A17E-BAA01A3EF0E9}" name="Source resolution (X,Y,) [cm²]" dataDxfId="2"/>
+    <tableColumn id="101" xr3:uid="{AFAA355A-5088-4D32-864A-D3766E3F2DB9}" name="Variable Current in X direction [mA]" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B8B68D9B-B8A5-47C6-9E38-96ACC38FEEBF}" name="Variable Current in Y direction [mA]" dataDxfId="1"/>
+    <tableColumn id="113" xr3:uid="{52A1E8D6-8081-4659-A014-60E4EF5F0E59}" name="Conveyor density [g/cm³]" dataDxfId="3"/>
+    <tableColumn id="94" xr3:uid="{96888CAA-C7C5-4E47-8448-9191C49FA5A1}" name="Conveyor dimensions [cm³]" dataDxfId="33"/>
+    <tableColumn id="95" xr3:uid="{ED0D4D0E-1211-43F2-BC0E-22DA81926893}" name="Conveyor (X,Z,) offset to source [cm]²" dataDxfId="32"/>
+    <tableColumn id="98" xr3:uid="{A2FC2080-D096-4223-A065-59BF125992CF}" name="Conveyor speed [m/min]" dataDxfId="31"/>
+    <tableColumn id="99" xr3:uid="{5E6C370D-3088-4624-AFB4-003F396975BF}" name="Operation [hours/year]" dataDxfId="30"/>
+    <tableColumn id="102" xr3:uid="{770C3078-401F-4D26-A1DF-66B2FFE02E8B}" name="Central product density [g/cm³]" dataDxfId="29"/>
+    <tableColumn id="48" xr3:uid="{CCB69289-CD76-4BD9-9335-F57431C42E63}" name="Central product dimensions [cm³]" dataDxfId="28"/>
+    <tableColumn id="107" xr3:uid="{7D836FFB-FB1E-4F92-B391-5A079FD28583}" name="Central product (Y,Z,) position [cm]" dataDxfId="27"/>
+    <tableColumn id="105" xr3:uid="{52C3BF51-271E-47F7-AA33-2A718B0AF70E}" name="Central product resolution (X,Y,Z) [cm³]" dataDxfId="26"/>
+    <tableColumn id="80" xr3:uid="{9673494C-D662-4EC2-81E7-43A6012DBA29}" name="Central wooden pallet density [g/cm³]" dataDxfId="25"/>
+    <tableColumn id="78" xr3:uid="{AD143500-9222-4D71-A52F-89788F0E51BF}" name="Central wooden pallet dimensions [cm³]" dataDxfId="24"/>
+    <tableColumn id="104" xr3:uid="{64CF5341-FD0F-4CC6-8051-EDE54CCFDAFD}" name="Left product density [g/cm³]" dataDxfId="23"/>
+    <tableColumn id="103" xr3:uid="{302258E3-A3C1-449E-A147-45DF85CD8461}" name="Left product dimensions [cm³]" dataDxfId="22"/>
+    <tableColumn id="81" xr3:uid="{F4817E2A-8E0A-4F71-AEEF-983CB4BA5C5A}" name="Left product Y-gap [cm]" dataDxfId="21"/>
+    <tableColumn id="79" xr3:uid="{D4890004-1BD6-47CE-A0AD-30515FDE1C89}" name="Left wooden pallet density [g/cm³]" dataDxfId="20"/>
+    <tableColumn id="49" xr3:uid="{99EDCD1E-4E84-4177-8AE8-B85A1112E226}" name="Left wooden pallet dimensions [cm³]" dataDxfId="19"/>
+    <tableColumn id="68" xr3:uid="{134833D5-3CD0-445F-96A6-F83F3F601C27}" name="Right product density [g/cm³]" dataDxfId="18"/>
+    <tableColumn id="69" xr3:uid="{57F245DA-9F77-4C92-89BD-07EC51E62BA7}" name="Right product dimensions [cm³]" dataDxfId="17"/>
+    <tableColumn id="85" xr3:uid="{872D630E-21C6-45BA-BF05-CA39F0614DE6}" name="Right product Y-gap [cm]" dataDxfId="16"/>
+    <tableColumn id="84" xr3:uid="{65B9F3CC-FE71-4DC2-B3A1-DCE7E9DFB044}" name="Right wooden pallet density [g/cm³]" dataDxfId="15"/>
+    <tableColumn id="83" xr3:uid="{C788756D-428F-464B-BB5B-33F86DA3B670}" name="Right wooden pallet dimensions [cm³]" dataDxfId="14"/>
+    <tableColumn id="82" xr3:uid="{F993C600-89C0-4209-8324-76E491F0FF21}" name="Mother pallets density [g/cm³]" dataDxfId="13"/>
+    <tableColumn id="65" xr3:uid="{E2839587-C22B-4C24-A46E-35133C720E5D}" name="Mother pallets dimensions [cm³]" dataDxfId="12"/>
+    <tableColumn id="75" xr3:uid="{D92D691F-4F6B-4EA0-8A3B-CC42AE83D3EB}" name="Units (Gy/h) (kGy/h) (Gy) (kGy)" dataDxfId="11"/>
+    <tableColumn id="63" xr3:uid="{EF6E5902-20A7-42BC-AA8A-69AFA6FA6571}" name="Minimum dose" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Purpose of the test" dataDxfId="9"/>
+    <tableColumn id="77" xr3:uid="{95DD1121-A20B-405B-B9A1-FE5D35E618A0}" name="List of n 0-D dose mapping points (X1,Y1,Z1), …, (Xn,Yn,Zn)" dataDxfId="8"/>
+    <tableColumn id="109" xr3:uid="{EAC4DB55-B00A-46BE-AD00-296DD033D394}" name="X-mapping (V or X)" dataDxfId="7"/>
+    <tableColumn id="111" xr3:uid="{738EFEBD-DE05-475E-AAEA-A33A35B3E948}" name="Y-mapping (V or X)" dataDxfId="6"/>
+    <tableColumn id="110" xr3:uid="{DBF499A0-44D0-419A-909B-771F65574919}" name="Z-mapping (V or X)" dataDxfId="5"/>
+    <tableColumn id="90" xr3:uid="{59CF94CA-802D-4A0C-8D11-1660040EBEDD}" name="List of p 1-D mapping points (X1,Y1,Z1), …, (Xp,Yp,Zp)" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1824,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CJ87"/>
+  <dimension ref="A1:CK87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1837,139 +1858,140 @@
     <col min="3" max="3" width="18.90625" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" customWidth="1"/>
     <col min="5" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="19.7265625" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" customWidth="1"/>
-    <col min="13" max="14" width="16.54296875" customWidth="1"/>
-    <col min="15" max="15" width="17.54296875" customWidth="1"/>
-    <col min="16" max="16" width="17.81640625" customWidth="1"/>
-    <col min="17" max="19" width="17.1796875" customWidth="1"/>
-    <col min="20" max="20" width="16.1796875" customWidth="1"/>
-    <col min="21" max="21" width="18.1796875" customWidth="1"/>
-    <col min="22" max="22" width="20.08984375" customWidth="1"/>
-    <col min="23" max="23" width="15.81640625" customWidth="1"/>
-    <col min="24" max="24" width="15.90625" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" customWidth="1"/>
-    <col min="26" max="26" width="18.26953125" customWidth="1"/>
-    <col min="27" max="27" width="18.6328125" customWidth="1"/>
-    <col min="28" max="28" width="17" customWidth="1"/>
-    <col min="29" max="29" width="17.81640625" customWidth="1"/>
-    <col min="30" max="30" width="16.81640625" customWidth="1"/>
-    <col min="31" max="31" width="16" customWidth="1"/>
-    <col min="32" max="32" width="31.7265625" customWidth="1"/>
-    <col min="33" max="33" width="39.7265625" customWidth="1"/>
-    <col min="34" max="34" width="9.90625" customWidth="1"/>
-    <col min="35" max="35" width="9.7265625" customWidth="1"/>
-    <col min="36" max="36" width="10.453125" customWidth="1"/>
-    <col min="37" max="37" width="32.453125" customWidth="1"/>
-    <col min="38" max="38" width="38.08984375" customWidth="1"/>
-    <col min="39" max="39" width="40.08984375" customWidth="1"/>
-    <col min="40" max="40" width="15.1796875" customWidth="1"/>
-    <col min="41" max="41" width="14" customWidth="1"/>
-    <col min="42" max="42" width="14.26953125" customWidth="1"/>
-    <col min="43" max="43" width="13.81640625" customWidth="1"/>
-    <col min="44" max="44" width="15.54296875" customWidth="1"/>
-    <col min="45" max="45" width="14.7265625" customWidth="1"/>
-    <col min="46" max="46" width="15.54296875" customWidth="1"/>
-    <col min="47" max="47" width="14.1796875" customWidth="1"/>
-    <col min="48" max="49" width="14.453125" customWidth="1"/>
-    <col min="50" max="50" width="14.81640625" customWidth="1"/>
-    <col min="51" max="51" width="12.81640625" customWidth="1"/>
-    <col min="52" max="52" width="13" customWidth="1"/>
-    <col min="53" max="53" width="13.08984375" customWidth="1"/>
-    <col min="54" max="54" width="13.1796875" customWidth="1"/>
-    <col min="55" max="55" width="11.26953125" customWidth="1"/>
-    <col min="56" max="56" width="12.6328125" customWidth="1"/>
-    <col min="57" max="57" width="13.7265625" customWidth="1"/>
-    <col min="58" max="58" width="17" customWidth="1"/>
-    <col min="59" max="59" width="24" customWidth="1"/>
-    <col min="60" max="60" width="24.08984375" customWidth="1"/>
-    <col min="61" max="61" width="26.453125" customWidth="1"/>
-    <col min="62" max="62" width="25.36328125" customWidth="1"/>
-    <col min="63" max="63" width="22.6328125" customWidth="1"/>
-    <col min="64" max="64" width="29.90625" customWidth="1"/>
-    <col min="65" max="65" width="26.36328125" customWidth="1"/>
-    <col min="66" max="66" width="27" customWidth="1"/>
-    <col min="67" max="67" width="25.54296875" customWidth="1"/>
-    <col min="68" max="68" width="17.54296875" customWidth="1"/>
-    <col min="69" max="69" width="17" customWidth="1"/>
-    <col min="70" max="70" width="20.453125" customWidth="1"/>
-    <col min="71" max="71" width="19.36328125" customWidth="1"/>
-    <col min="72" max="72" width="17.7265625" customWidth="1"/>
-    <col min="73" max="73" width="19.36328125" customWidth="1"/>
+    <col min="6" max="6" width="96.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" customWidth="1"/>
+    <col min="14" max="15" width="16.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.81640625" customWidth="1"/>
+    <col min="18" max="20" width="17.1796875" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" customWidth="1"/>
+    <col min="22" max="22" width="18.1796875" customWidth="1"/>
+    <col min="23" max="23" width="20.08984375" customWidth="1"/>
+    <col min="24" max="24" width="15.81640625" customWidth="1"/>
+    <col min="25" max="25" width="15.90625" customWidth="1"/>
+    <col min="26" max="26" width="18.54296875" customWidth="1"/>
+    <col min="27" max="27" width="18.26953125" customWidth="1"/>
+    <col min="28" max="28" width="18.6328125" customWidth="1"/>
+    <col min="29" max="29" width="17" customWidth="1"/>
+    <col min="30" max="30" width="17.81640625" customWidth="1"/>
+    <col min="31" max="31" width="16.81640625" customWidth="1"/>
+    <col min="32" max="32" width="16" customWidth="1"/>
+    <col min="33" max="33" width="31.7265625" customWidth="1"/>
+    <col min="34" max="34" width="39.7265625" customWidth="1"/>
+    <col min="35" max="35" width="9.90625" customWidth="1"/>
+    <col min="36" max="36" width="9.7265625" customWidth="1"/>
+    <col min="37" max="37" width="10.453125" customWidth="1"/>
+    <col min="38" max="38" width="32.453125" customWidth="1"/>
+    <col min="39" max="39" width="38.08984375" customWidth="1"/>
+    <col min="40" max="40" width="40.08984375" customWidth="1"/>
+    <col min="41" max="41" width="15.1796875" customWidth="1"/>
+    <col min="42" max="42" width="14" customWidth="1"/>
+    <col min="43" max="43" width="14.26953125" customWidth="1"/>
+    <col min="44" max="44" width="13.81640625" customWidth="1"/>
+    <col min="45" max="45" width="15.54296875" customWidth="1"/>
+    <col min="46" max="46" width="14.7265625" customWidth="1"/>
+    <col min="47" max="47" width="15.54296875" customWidth="1"/>
+    <col min="48" max="48" width="14.1796875" customWidth="1"/>
+    <col min="49" max="50" width="14.453125" customWidth="1"/>
+    <col min="51" max="51" width="14.81640625" customWidth="1"/>
+    <col min="52" max="52" width="12.81640625" customWidth="1"/>
+    <col min="53" max="53" width="13" customWidth="1"/>
+    <col min="54" max="54" width="13.08984375" customWidth="1"/>
+    <col min="55" max="55" width="13.1796875" customWidth="1"/>
+    <col min="56" max="56" width="11.26953125" customWidth="1"/>
+    <col min="57" max="57" width="12.6328125" customWidth="1"/>
+    <col min="58" max="58" width="13.7265625" customWidth="1"/>
+    <col min="59" max="59" width="17" customWidth="1"/>
+    <col min="60" max="60" width="24" customWidth="1"/>
+    <col min="61" max="61" width="24.08984375" customWidth="1"/>
+    <col min="62" max="62" width="26.453125" customWidth="1"/>
+    <col min="63" max="63" width="25.36328125" customWidth="1"/>
+    <col min="64" max="64" width="22.6328125" customWidth="1"/>
+    <col min="65" max="65" width="29.90625" customWidth="1"/>
+    <col min="66" max="66" width="26.36328125" customWidth="1"/>
+    <col min="67" max="67" width="27" customWidth="1"/>
+    <col min="68" max="68" width="25.54296875" customWidth="1"/>
+    <col min="69" max="69" width="17.54296875" customWidth="1"/>
+    <col min="70" max="70" width="17" customWidth="1"/>
+    <col min="71" max="71" width="20.453125" customWidth="1"/>
+    <col min="72" max="72" width="19.36328125" customWidth="1"/>
+    <col min="73" max="73" width="17.7265625" customWidth="1"/>
+    <col min="74" max="74" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:89" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="45"/>
       <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="66"/>
+      <c r="S1" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="68"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="70"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="67"/>
-      <c r="W1" s="69" t="s">
+      <c r="W1" s="66"/>
+      <c r="X1" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="69" t="s">
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="65" t="s">
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" s="53" t="s">
+      <c r="AH1" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="5"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="66"/>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
@@ -2002,8 +2024,9 @@
       <c r="BP1" s="5"/>
       <c r="BQ1" s="5"/>
       <c r="BR1" s="5"/>
-    </row>
-    <row r="2" spans="1:88" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BS1" s="5"/>
+    </row>
+    <row r="2" spans="1:89" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2017,105 +2040,107 @@
         <v>5</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="19" t="s">
+      <c r="Q2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AG2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AH2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
@@ -2160,14 +2185,15 @@
       <c r="CB2" s="2"/>
       <c r="CC2" s="2"/>
       <c r="CD2" s="2"/>
-      <c r="CE2" s="3"/>
+      <c r="CE2" s="2"/>
       <c r="CF2" s="3"/>
       <c r="CG2" s="3"/>
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
-    </row>
-    <row r="3" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CK2" s="3"/>
+    </row>
+    <row r="3" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2181,106 +2207,109 @@
         <v>340</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3</v>
+      </c>
+      <c r="L3" s="23">
+        <v>8000</v>
+      </c>
+      <c r="M3" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="62">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="s">
+      <c r="Q3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="30">
+        <v>20</v>
+      </c>
+      <c r="V3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="37">
+        <v>0.46</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>20</v>
+      </c>
+      <c r="AA3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="52">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="AI3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="23">
-        <v>8000</v>
-      </c>
-      <c r="L3" s="37">
-        <v>0.46</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="37">
-        <v>0.46</v>
-      </c>
-      <c r="S3" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="30">
-        <v>20</v>
-      </c>
-      <c r="U3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="37">
-        <v>0.46</v>
-      </c>
-      <c r="X3" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="30">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="52">
-        <v>25</v>
-      </c>
-      <c r="AF3" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG3" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH3" s="29" t="s">
+      <c r="AJ3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AI3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ3" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK3" s="57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK3" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL3" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2294,106 +2323,109 @@
         <v>340</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3</v>
+      </c>
+      <c r="L4" s="23">
+        <v>8000</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="62">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="Q4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="32">
+        <v>20</v>
+      </c>
+      <c r="V4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="23">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH4" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="AI4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="23">
-        <v>8000</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="32">
-        <v>20</v>
-      </c>
-      <c r="U4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="V4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="32">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="23">
-        <v>25</v>
-      </c>
-      <c r="AF4" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG4" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AJ4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK4" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:88" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL4" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:89" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -2407,111 +2439,114 @@
         <v>340</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+      <c r="L5" s="23">
+        <v>8000</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="62">
-        <v>1</v>
-      </c>
-      <c r="G5" s="31" t="s">
+      <c r="Q5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="32">
+        <v>20</v>
+      </c>
+      <c r="V5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="23">
+        <v>25</v>
+      </c>
+      <c r="AG5" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH5" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="AI5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="23">
-        <v>8000</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T5" s="32">
-        <v>20</v>
-      </c>
-      <c r="U5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="W5" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="32">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="23">
-        <v>25</v>
-      </c>
-      <c r="AF5" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG5" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH5" s="31" t="s">
+      <c r="AJ5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK5" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:88" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK5" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL5" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:89" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C6" s="13">
         <v>210</v>
@@ -2520,111 +2555,114 @@
         <v>340</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="23">
+        <v>8000</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="62">
-        <v>1</v>
-      </c>
-      <c r="G6" s="31" t="s">
+      <c r="Q6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="32">
+        <v>20</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="32">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="23">
+        <v>25</v>
+      </c>
+      <c r="AG6" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="AI6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="23">
-        <v>8000</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" s="32">
-        <v>20</v>
-      </c>
-      <c r="U6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="V6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="32">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA6" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD6" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="23">
-        <v>25</v>
-      </c>
-      <c r="AF6" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG6" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH6" s="31" t="s">
+      <c r="AJ6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AI6" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK6" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK6" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL6" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C7" s="13">
         <v>210</v>
@@ -2633,111 +2671,114 @@
         <v>340</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3</v>
+      </c>
+      <c r="L7" s="23">
+        <v>8000</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="62">
-        <v>1</v>
-      </c>
-      <c r="G7" s="31" t="s">
+      <c r="Q7" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="32">
+        <v>20</v>
+      </c>
+      <c r="V7" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>20</v>
+      </c>
+      <c r="AA7" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="23">
+        <v>25</v>
+      </c>
+      <c r="AG7" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH7" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="AI7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="23">
-        <v>8000</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T7" s="32">
-        <v>20</v>
-      </c>
-      <c r="U7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="V7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="32">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA7" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC7" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD7" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="23">
-        <v>25</v>
-      </c>
-      <c r="AF7" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH7" s="31" t="s">
+      <c r="AJ7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK7" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL7" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C8" s="13">
         <v>210</v>
@@ -2746,111 +2787,114 @@
         <v>340</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3</v>
+      </c>
+      <c r="L8" s="23">
+        <v>8000</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="62">
-        <v>1</v>
-      </c>
-      <c r="G8" s="31" t="s">
+      <c r="Q8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="32">
+        <v>20</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="23">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH8" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="AI8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="23">
-        <v>8000</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T8" s="32">
-        <v>20</v>
-      </c>
-      <c r="U8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="32">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC8" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="23">
-        <v>25</v>
-      </c>
-      <c r="AF8" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH8" s="31" t="s">
+      <c r="AJ8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AI8" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ8" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK8" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK8" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL8" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C9" s="13">
         <v>210</v>
@@ -2859,111 +2903,114 @@
         <v>340</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="6">
+        <v>3</v>
+      </c>
+      <c r="L9" s="23">
+        <v>8000</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="62">
-        <v>1</v>
-      </c>
-      <c r="G9" s="31" t="s">
+      <c r="Q9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="32">
+        <v>20</v>
+      </c>
+      <c r="V9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB9" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="23">
+        <v>25</v>
+      </c>
+      <c r="AG9" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH9" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="AI9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="23">
-        <v>8000</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9" s="32">
-        <v>20</v>
-      </c>
-      <c r="U9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="32">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA9" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC9" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD9" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="23">
-        <v>25</v>
-      </c>
-      <c r="AF9" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG9" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH9" s="31" t="s">
+      <c r="AJ9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AI9" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ9" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK9" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL9" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C10" s="13">
         <v>210</v>
@@ -2972,111 +3019,114 @@
         <v>340</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3</v>
+      </c>
+      <c r="L10" s="23">
+        <v>8000</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="62">
-        <v>1</v>
-      </c>
-      <c r="G10" s="31" t="s">
+      <c r="Q10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="32">
+        <v>20</v>
+      </c>
+      <c r="V10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="32">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB10" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="23">
+        <v>25</v>
+      </c>
+      <c r="AG10" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH10" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="AI10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="23">
-        <v>8000</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T10" s="32">
-        <v>20</v>
-      </c>
-      <c r="U10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y10" s="32">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA10" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC10" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="23">
-        <v>25</v>
-      </c>
-      <c r="AF10" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG10" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH10" s="31" t="s">
+      <c r="AJ10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AI10" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ10" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK10" s="59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:88" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK10" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL10" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:89" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C11" s="14">
         <v>210</v>
@@ -3085,118 +3135,122 @@
         <v>340</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="15">
+        <v>3</v>
+      </c>
+      <c r="L11" s="24">
+        <v>8000</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="63">
-        <v>1</v>
-      </c>
-      <c r="G11" s="33" t="s">
+      <c r="Q11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="T11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="34">
+        <v>20</v>
+      </c>
+      <c r="V11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="Y11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="34">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="24">
+        <v>25</v>
+      </c>
+      <c r="AG11" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH11" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="AI11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="24">
-        <v>8000</v>
-      </c>
-      <c r="L11" s="14">
-        <v>0.46</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="13">
-        <v>0.46</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="T11" s="34">
-        <v>20</v>
-      </c>
-      <c r="U11" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="V11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="W11" s="14">
-        <v>0.46</v>
-      </c>
-      <c r="X11" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="34">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA11" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC11" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD11" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="24">
-        <v>25</v>
-      </c>
-      <c r="AF11" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG11" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH11" s="33" t="s">
+      <c r="AJ11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AI11" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ11" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK11" s="61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AK11" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL11" s="61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3207,8 +3261,9 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3219,8 +3274,9 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3231,8 +3287,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:88" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:89" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3243,8 +3300,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3255,8 +3313,9 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -3267,8 +3326,9 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -3279,8 +3339,9 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -3291,8 +3352,9 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -3303,8 +3365,9 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -3315,8 +3378,9 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -3327,8 +3391,9 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3339,8 +3404,9 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3351,8 +3417,9 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3363,8 +3430,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3375,8 +3443,9 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3387,8 +3456,9 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3399,8 +3469,9 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3411,8 +3482,9 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3423,8 +3495,9 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3435,8 +3508,9 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3447,8 +3521,9 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3459,8 +3534,9 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3471,8 +3547,9 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3483,8 +3560,9 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3495,8 +3573,9 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3507,8 +3586,9 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -3519,8 +3599,9 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3531,8 +3612,9 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3543,8 +3625,9 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3555,8 +3638,9 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -3567,8 +3651,9 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -3579,8 +3664,9 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3591,8 +3677,9 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -3603,8 +3690,9 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -3615,8 +3703,9 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -3627,8 +3716,9 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3639,8 +3729,9 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3651,8 +3742,9 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3663,8 +3755,9 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3675,8 +3768,9 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3687,8 +3781,9 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3699,8 +3794,9 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -3711,8 +3807,9 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3723,8 +3820,9 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -3735,8 +3833,9 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -3747,8 +3846,9 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3759,8 +3859,9 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3771,8 +3872,9 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -3783,8 +3885,9 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -3795,8 +3898,9 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3807,8 +3911,9 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -3819,8 +3924,9 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -3831,8 +3937,9 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -3843,8 +3950,9 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -3855,8 +3963,9 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3867,8 +3976,9 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3879,8 +3989,9 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3891,8 +4002,9 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -3903,8 +4015,9 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -3915,8 +4028,9 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -3927,8 +4041,9 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -3939,8 +4054,9 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -3951,8 +4067,9 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -3963,8 +4080,9 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -3975,8 +4093,9 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -3987,8 +4106,9 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -3999,8 +4119,9 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -4011,8 +4132,9 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -4023,8 +4145,9 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -4035,8 +4158,9 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -4047,8 +4171,9 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -4059,8 +4184,9 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -4071,8 +4197,9 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -4083,8 +4210,9 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="6:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="6:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -4095,20 +4223,21 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XRayTracing_Input.xlsx
+++ b/XRayTracing_Input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAPAK\OneDrive - IBA Group\Documents\XRayTracing_script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CE9809-6683-43EC-8EF5-2DBC0AF4FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA77D8D-E2FE-4836-9046-D5D7976753D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
+    <sheet name="Extra Info" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="81">
   <si>
     <t>Simulation number</t>
   </si>
@@ -273,13 +274,16 @@
   </si>
   <si>
     <t>[1.5, 1.5, 1.5, 1.25, 1.15, 1.07, 1.02, 0.98, 0.94, 0.91, 0.90, 0.91, 0.94, 0.98, 1.02, 1.07, 1.15, 1.25, 1.5, 1.5, 1.5]</t>
+  </si>
+  <si>
+    <t>Script Version 1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +307,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -747,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -934,6 +945,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,62 +984,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1441,6 +1420,54 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1543,40 +1570,40 @@
     <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Run (V or X)" dataDxfId="36"/>
     <tableColumn id="91" xr3:uid="{626FBC7C-3428-4D9C-8245-E9980AC00DE2}" name="Source X-dimension [cm]" dataDxfId="35"/>
     <tableColumn id="92" xr3:uid="{48847A7E-649C-495D-90D0-0688D87DF622}" name="Source Y-dimension [cm]" dataDxfId="34"/>
-    <tableColumn id="93" xr3:uid="{66149D7C-1A46-4A74-A17E-BAA01A3EF0E9}" name="Source resolution (X,Y,) [cm²]" dataDxfId="2"/>
-    <tableColumn id="101" xr3:uid="{AFAA355A-5088-4D32-864A-D3766E3F2DB9}" name="Variable Current in X direction [mA]" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{B8B68D9B-B8A5-47C6-9E38-96ACC38FEEBF}" name="Variable Current in Y direction [mA]" dataDxfId="1"/>
-    <tableColumn id="113" xr3:uid="{52A1E8D6-8081-4659-A014-60E4EF5F0E59}" name="Conveyor density [g/cm³]" dataDxfId="3"/>
-    <tableColumn id="94" xr3:uid="{96888CAA-C7C5-4E47-8448-9191C49FA5A1}" name="Conveyor dimensions [cm³]" dataDxfId="33"/>
-    <tableColumn id="95" xr3:uid="{ED0D4D0E-1211-43F2-BC0E-22DA81926893}" name="Conveyor (X,Z,) offset to source [cm]²" dataDxfId="32"/>
-    <tableColumn id="98" xr3:uid="{A2FC2080-D096-4223-A065-59BF125992CF}" name="Conveyor speed [m/min]" dataDxfId="31"/>
-    <tableColumn id="99" xr3:uid="{5E6C370D-3088-4624-AFB4-003F396975BF}" name="Operation [hours/year]" dataDxfId="30"/>
-    <tableColumn id="102" xr3:uid="{770C3078-401F-4D26-A1DF-66B2FFE02E8B}" name="Central product density [g/cm³]" dataDxfId="29"/>
-    <tableColumn id="48" xr3:uid="{CCB69289-CD76-4BD9-9335-F57431C42E63}" name="Central product dimensions [cm³]" dataDxfId="28"/>
-    <tableColumn id="107" xr3:uid="{7D836FFB-FB1E-4F92-B391-5A079FD28583}" name="Central product (Y,Z,) position [cm]" dataDxfId="27"/>
-    <tableColumn id="105" xr3:uid="{52C3BF51-271E-47F7-AA33-2A718B0AF70E}" name="Central product resolution (X,Y,Z) [cm³]" dataDxfId="26"/>
-    <tableColumn id="80" xr3:uid="{9673494C-D662-4EC2-81E7-43A6012DBA29}" name="Central wooden pallet density [g/cm³]" dataDxfId="25"/>
-    <tableColumn id="78" xr3:uid="{AD143500-9222-4D71-A52F-89788F0E51BF}" name="Central wooden pallet dimensions [cm³]" dataDxfId="24"/>
-    <tableColumn id="104" xr3:uid="{64CF5341-FD0F-4CC6-8051-EDE54CCFDAFD}" name="Left product density [g/cm³]" dataDxfId="23"/>
-    <tableColumn id="103" xr3:uid="{302258E3-A3C1-449E-A147-45DF85CD8461}" name="Left product dimensions [cm³]" dataDxfId="22"/>
-    <tableColumn id="81" xr3:uid="{F4817E2A-8E0A-4F71-AEEF-983CB4BA5C5A}" name="Left product Y-gap [cm]" dataDxfId="21"/>
-    <tableColumn id="79" xr3:uid="{D4890004-1BD6-47CE-A0AD-30515FDE1C89}" name="Left wooden pallet density [g/cm³]" dataDxfId="20"/>
-    <tableColumn id="49" xr3:uid="{99EDCD1E-4E84-4177-8AE8-B85A1112E226}" name="Left wooden pallet dimensions [cm³]" dataDxfId="19"/>
-    <tableColumn id="68" xr3:uid="{134833D5-3CD0-445F-96A6-F83F3F601C27}" name="Right product density [g/cm³]" dataDxfId="18"/>
-    <tableColumn id="69" xr3:uid="{57F245DA-9F77-4C92-89BD-07EC51E62BA7}" name="Right product dimensions [cm³]" dataDxfId="17"/>
-    <tableColumn id="85" xr3:uid="{872D630E-21C6-45BA-BF05-CA39F0614DE6}" name="Right product Y-gap [cm]" dataDxfId="16"/>
-    <tableColumn id="84" xr3:uid="{65B9F3CC-FE71-4DC2-B3A1-DCE7E9DFB044}" name="Right wooden pallet density [g/cm³]" dataDxfId="15"/>
-    <tableColumn id="83" xr3:uid="{C788756D-428F-464B-BB5B-33F86DA3B670}" name="Right wooden pallet dimensions [cm³]" dataDxfId="14"/>
-    <tableColumn id="82" xr3:uid="{F993C600-89C0-4209-8324-76E491F0FF21}" name="Mother pallets density [g/cm³]" dataDxfId="13"/>
-    <tableColumn id="65" xr3:uid="{E2839587-C22B-4C24-A46E-35133C720E5D}" name="Mother pallets dimensions [cm³]" dataDxfId="12"/>
-    <tableColumn id="75" xr3:uid="{D92D691F-4F6B-4EA0-8A3B-CC42AE83D3EB}" name="Units (Gy/h) (kGy/h) (Gy) (kGy)" dataDxfId="11"/>
-    <tableColumn id="63" xr3:uid="{EF6E5902-20A7-42BC-AA8A-69AFA6FA6571}" name="Minimum dose" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Purpose of the test" dataDxfId="9"/>
-    <tableColumn id="77" xr3:uid="{95DD1121-A20B-405B-B9A1-FE5D35E618A0}" name="List of n 0-D dose mapping points (X1,Y1,Z1), …, (Xn,Yn,Zn)" dataDxfId="8"/>
-    <tableColumn id="109" xr3:uid="{EAC4DB55-B00A-46BE-AD00-296DD033D394}" name="X-mapping (V or X)" dataDxfId="7"/>
-    <tableColumn id="111" xr3:uid="{738EFEBD-DE05-475E-AAEA-A33A35B3E948}" name="Y-mapping (V or X)" dataDxfId="6"/>
-    <tableColumn id="110" xr3:uid="{DBF499A0-44D0-419A-909B-771F65574919}" name="Z-mapping (V or X)" dataDxfId="5"/>
-    <tableColumn id="90" xr3:uid="{59CF94CA-802D-4A0C-8D11-1660040EBEDD}" name="List of p 1-D mapping points (X1,Y1,Z1), …, (Xp,Yp,Zp)" dataDxfId="4"/>
+    <tableColumn id="93" xr3:uid="{66149D7C-1A46-4A74-A17E-BAA01A3EF0E9}" name="Source resolution (X,Y,) [cm²]" dataDxfId="33"/>
+    <tableColumn id="101" xr3:uid="{AFAA355A-5088-4D32-864A-D3766E3F2DB9}" name="Variable Current in X direction [mA]" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{B8B68D9B-B8A5-47C6-9E38-96ACC38FEEBF}" name="Variable Current in Y direction [mA]" dataDxfId="31"/>
+    <tableColumn id="113" xr3:uid="{52A1E8D6-8081-4659-A014-60E4EF5F0E59}" name="Conveyor density [g/cm³]" dataDxfId="30"/>
+    <tableColumn id="94" xr3:uid="{96888CAA-C7C5-4E47-8448-9191C49FA5A1}" name="Conveyor dimensions [cm³]" dataDxfId="29"/>
+    <tableColumn id="95" xr3:uid="{ED0D4D0E-1211-43F2-BC0E-22DA81926893}" name="Conveyor (X,Z,) offset to source [cm]²" dataDxfId="28"/>
+    <tableColumn id="98" xr3:uid="{A2FC2080-D096-4223-A065-59BF125992CF}" name="Conveyor speed [m/min]" dataDxfId="27"/>
+    <tableColumn id="99" xr3:uid="{5E6C370D-3088-4624-AFB4-003F396975BF}" name="Operation [hours/year]" dataDxfId="26"/>
+    <tableColumn id="102" xr3:uid="{770C3078-401F-4D26-A1DF-66B2FFE02E8B}" name="Central product density [g/cm³]" dataDxfId="25"/>
+    <tableColumn id="48" xr3:uid="{CCB69289-CD76-4BD9-9335-F57431C42E63}" name="Central product dimensions [cm³]" dataDxfId="24"/>
+    <tableColumn id="107" xr3:uid="{7D836FFB-FB1E-4F92-B391-5A079FD28583}" name="Central product (Y,Z,) position [cm]" dataDxfId="23"/>
+    <tableColumn id="105" xr3:uid="{52C3BF51-271E-47F7-AA33-2A718B0AF70E}" name="Central product resolution (X,Y,Z) [cm³]" dataDxfId="22"/>
+    <tableColumn id="80" xr3:uid="{9673494C-D662-4EC2-81E7-43A6012DBA29}" name="Central wooden pallet density [g/cm³]" dataDxfId="21"/>
+    <tableColumn id="78" xr3:uid="{AD143500-9222-4D71-A52F-89788F0E51BF}" name="Central wooden pallet dimensions [cm³]" dataDxfId="20"/>
+    <tableColumn id="104" xr3:uid="{64CF5341-FD0F-4CC6-8051-EDE54CCFDAFD}" name="Left product density [g/cm³]" dataDxfId="19"/>
+    <tableColumn id="103" xr3:uid="{302258E3-A3C1-449E-A147-45DF85CD8461}" name="Left product dimensions [cm³]" dataDxfId="18"/>
+    <tableColumn id="81" xr3:uid="{F4817E2A-8E0A-4F71-AEEF-983CB4BA5C5A}" name="Left product Y-gap [cm]" dataDxfId="17"/>
+    <tableColumn id="79" xr3:uid="{D4890004-1BD6-47CE-A0AD-30515FDE1C89}" name="Left wooden pallet density [g/cm³]" dataDxfId="16"/>
+    <tableColumn id="49" xr3:uid="{99EDCD1E-4E84-4177-8AE8-B85A1112E226}" name="Left wooden pallet dimensions [cm³]" dataDxfId="15"/>
+    <tableColumn id="68" xr3:uid="{134833D5-3CD0-445F-96A6-F83F3F601C27}" name="Right product density [g/cm³]" dataDxfId="14"/>
+    <tableColumn id="69" xr3:uid="{57F245DA-9F77-4C92-89BD-07EC51E62BA7}" name="Right product dimensions [cm³]" dataDxfId="13"/>
+    <tableColumn id="85" xr3:uid="{872D630E-21C6-45BA-BF05-CA39F0614DE6}" name="Right product Y-gap [cm]" dataDxfId="12"/>
+    <tableColumn id="84" xr3:uid="{65B9F3CC-FE71-4DC2-B3A1-DCE7E9DFB044}" name="Right wooden pallet density [g/cm³]" dataDxfId="11"/>
+    <tableColumn id="83" xr3:uid="{C788756D-428F-464B-BB5B-33F86DA3B670}" name="Right wooden pallet dimensions [cm³]" dataDxfId="10"/>
+    <tableColumn id="82" xr3:uid="{F993C600-89C0-4209-8324-76E491F0FF21}" name="Mother pallets density [g/cm³]" dataDxfId="9"/>
+    <tableColumn id="65" xr3:uid="{E2839587-C22B-4C24-A46E-35133C720E5D}" name="Mother pallets dimensions [cm³]" dataDxfId="8"/>
+    <tableColumn id="75" xr3:uid="{D92D691F-4F6B-4EA0-8A3B-CC42AE83D3EB}" name="Units (Gy/h) (kGy/h) (Gy) (kGy)" dataDxfId="7"/>
+    <tableColumn id="63" xr3:uid="{EF6E5902-20A7-42BC-AA8A-69AFA6FA6571}" name="Minimum dose" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Purpose of the test" dataDxfId="5"/>
+    <tableColumn id="77" xr3:uid="{95DD1121-A20B-405B-B9A1-FE5D35E618A0}" name="List of n 0-D dose mapping points (X1,Y1,Z1), …, (Xn,Yn,Zn)" dataDxfId="4"/>
+    <tableColumn id="109" xr3:uid="{EAC4DB55-B00A-46BE-AD00-296DD033D394}" name="X-mapping (V or X)" dataDxfId="3"/>
+    <tableColumn id="111" xr3:uid="{738EFEBD-DE05-475E-AAEA-A33A35B3E948}" name="Y-mapping (V or X)" dataDxfId="2"/>
+    <tableColumn id="110" xr3:uid="{DBF499A0-44D0-419A-909B-771F65574919}" name="Z-mapping (V or X)" dataDxfId="1"/>
+    <tableColumn id="90" xr3:uid="{59CF94CA-802D-4A0C-8D11-1660040EBEDD}" name="List of p 1-D mapping points (X1,Y1,Z1), …, (Xp,Yp,Zp)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1847,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CK87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1926,16 +1953,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:89" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="63"/>
       <c r="H1" s="36"/>
       <c r="I1" s="45" t="s">
@@ -1944,54 +1971,54 @@
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
       <c r="L1" s="46"/>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="64" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="67" t="s">
+      <c r="R1" s="72"/>
+      <c r="S1" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="64" t="s">
+      <c r="T1" s="74"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="66"/>
-      <c r="X1" s="67" t="s">
+      <c r="W1" s="72"/>
+      <c r="X1" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="64" t="s">
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="67" t="s">
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="64" t="s">
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="66"/>
+      <c r="AF1" s="72"/>
       <c r="AG1" s="53" t="s">
         <v>46</v>
       </c>
       <c r="AH1" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="64" t="s">
+      <c r="AI1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="66"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="72"/>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
       <c r="AO1" s="5"/>
@@ -2042,7 +2069,7 @@
       <c r="E2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="66" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="35" t="s">
@@ -2209,13 +2236,13 @@
       <c r="E3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="67" t="s">
         <v>65</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -2325,13 +2352,13 @@
       <c r="E4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="67" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="12" t="s">
@@ -2441,13 +2468,13 @@
       <c r="E5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="69" t="s">
         <v>65</v>
       </c>
       <c r="I5" s="12" t="s">
@@ -2557,13 +2584,13 @@
       <c r="E6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="67" t="s">
         <v>65</v>
       </c>
       <c r="I6" s="12" t="s">
@@ -2673,13 +2700,13 @@
       <c r="E7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="69" t="s">
         <v>65</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -2789,13 +2816,13 @@
       <c r="E8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="67" t="s">
         <v>65</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -2905,13 +2932,13 @@
       <c r="E9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="67" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="12" t="s">
@@ -3021,13 +3048,13 @@
       <c r="E10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="67" t="s">
         <v>65</v>
       </c>
       <c r="I10" s="12" t="s">
@@ -3137,13 +3164,13 @@
       <c r="E11" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="68" t="s">
         <v>65</v>
       </c>
       <c r="I11" s="62" t="s">
@@ -4246,4 +4273,25 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4810C4A1-0AB6-4741-A7AB-7DD6371F3125}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="77"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>